--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705413.8515955122</v>
+        <v>-707798.6727456423</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5927271.091497827</v>
+        <v>5927271.091497809</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14020507.68110573</v>
+        <v>14020507.68110574</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>86.58949915481975</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>125.1791513567831</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>99.43738317253812</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>90.89706773860519</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>115.9118647420297</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>345.3793563095228</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>367.3368292861975</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>2.906413479537133</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>83.82953530753669</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>377.3542771526512</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>255.5696050175827</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>100.5344742103485</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>234.4871813790491</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>347.2797343081738</v>
+        <v>347.2797343081746</v>
       </c>
       <c r="H11" t="n">
         <v>305.8134134169904</v>
       </c>
       <c r="I11" t="n">
-        <v>83.75984535611657</v>
+        <v>83.7598453561166</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.1211173125116</v>
+        <v>134.1211173125117</v>
       </c>
       <c r="T11" t="n">
         <v>208.7076909869171</v>
@@ -1467,7 +1467,7 @@
         <v>95.25091164536762</v>
       </c>
       <c r="I12" t="n">
-        <v>28.84777688394849</v>
+        <v>28.8477768839485</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>17.98444460010777</v>
       </c>
       <c r="V13" t="n">
-        <v>5.6597593647412</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.17558728915</v>
+        <v>411.1755872891501</v>
       </c>
       <c r="H14" t="n">
-        <v>297.2076248638983</v>
+        <v>297.2076248638984</v>
       </c>
       <c r="I14" t="n">
-        <v>51.36393048311936</v>
+        <v>51.36393048311982</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>114.9726338116122</v>
+        <v>114.9726338116125</v>
       </c>
       <c r="T14" t="n">
         <v>205.0292494498821</v>
@@ -1701,10 +1701,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H15" t="n">
-        <v>90.90868745906518</v>
+        <v>90.90868745906523</v>
       </c>
       <c r="I15" t="n">
-        <v>13.36800401270681</v>
+        <v>13.36800401270703</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>130.6664522335284</v>
+        <v>130.6664522335285</v>
       </c>
       <c r="T15" t="n">
         <v>191.2640522740862</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>123.732558435208</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>100.5845978254439</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.1396818493028</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.7674546533074</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>99.77690983373134</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>94.05232337457453</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>191.7535314455904</v>
+        <v>191.7535314455905</v>
       </c>
       <c r="T16" t="n">
         <v>220.0355000709787</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2180494923551</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.17558728915</v>
+        <v>411.1755872891501</v>
       </c>
       <c r="H17" t="n">
-        <v>297.2076248638983</v>
+        <v>297.2076248638989</v>
       </c>
       <c r="I17" t="n">
-        <v>51.36393048311936</v>
+        <v>51.36393048311982</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>114.9726338116122</v>
+        <v>114.9726338116125</v>
       </c>
       <c r="T17" t="n">
         <v>205.0292494498821</v>
@@ -1938,10 +1938,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H18" t="n">
-        <v>90.90868745906518</v>
+        <v>90.90868745906523</v>
       </c>
       <c r="I18" t="n">
-        <v>13.36800401270681</v>
+        <v>13.36800401270703</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>130.6664522335284</v>
+        <v>130.6664522335285</v>
       </c>
       <c r="T18" t="n">
         <v>191.2640522740862</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.1396818493028</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>191.7535314455905</v>
       </c>
       <c r="T19" t="n">
         <v>220.0355000709787</v>
@@ -2059,16 +2059,16 @@
         <v>286.2180494923551</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>119.1491700639786</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>123.732558435208</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.17558728915</v>
+        <v>411.1755872891501</v>
       </c>
       <c r="H20" t="n">
-        <v>297.2076248638983</v>
+        <v>297.2076248638984</v>
       </c>
       <c r="I20" t="n">
-        <v>51.36393048311936</v>
+        <v>51.36393048311982</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>114.9726338116122</v>
+        <v>114.9726338116125</v>
       </c>
       <c r="T20" t="n">
         <v>205.0292494498821</v>
@@ -2175,10 +2175,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H21" t="n">
-        <v>90.90868745906518</v>
+        <v>90.90868745906523</v>
       </c>
       <c r="I21" t="n">
-        <v>13.36800401270681</v>
+        <v>13.36800401270703</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>130.6664522335284</v>
+        <v>130.6664522335285</v>
       </c>
       <c r="T21" t="n">
         <v>191.2640522740862</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.7196438115701</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>191.7535314455905</v>
       </c>
       <c r="T22" t="n">
         <v>220.0355000709787</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.8283366231696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.17558728915</v>
+        <v>411.1755872891501</v>
       </c>
       <c r="H23" t="n">
-        <v>297.2076248638983</v>
+        <v>297.2076248638984</v>
       </c>
       <c r="I23" t="n">
-        <v>51.36393048311936</v>
+        <v>51.36393048311982</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>114.9726338116122</v>
+        <v>114.9726338116125</v>
       </c>
       <c r="T23" t="n">
         <v>205.0292494498821</v>
@@ -2412,10 +2412,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H24" t="n">
-        <v>90.90868745906518</v>
+        <v>90.90868745906523</v>
       </c>
       <c r="I24" t="n">
-        <v>13.36800401270681</v>
+        <v>13.36800401270703</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>130.6664522335284</v>
+        <v>130.6664522335285</v>
       </c>
       <c r="T24" t="n">
         <v>191.2640522740862</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>50.56895310604449</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>94.05232337457453</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>191.7535314455905</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.0355000709787</v>
       </c>
       <c r="U25" t="n">
         <v>286.2180494923551</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.37755067300473</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433808</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124633</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572899</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1845.77653600608</v>
+        <v>1371.274936282423</v>
       </c>
       <c r="C2" t="n">
-        <v>1476.814019065668</v>
+        <v>1371.274936282423</v>
       </c>
       <c r="D2" t="n">
-        <v>1118.548320458918</v>
+        <v>1013.009237675672</v>
       </c>
       <c r="E2" t="n">
-        <v>732.7600678606734</v>
+        <v>925.5450971152485</v>
       </c>
       <c r="F2" t="n">
-        <v>321.7741630710659</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G2" t="n">
-        <v>307.8507590096568</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.591755944065</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y2" t="n">
-        <v>1845.77653600608</v>
+        <v>1371.274936282423</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673418</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4425,34 +4425,34 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.087414675782</v>
+        <v>1663.420136195577</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1294.457619255165</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1294.457619255165</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1294.457619255165</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>883.4717144655576</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960885</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>1600.226746651594</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1210.087414675782</v>
+        <v>2050.019976259699</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>102.5352774446818</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>201.8560754027576</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>201.8560754027576</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>252.6519168570175</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1129.234822142136</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="C8" t="n">
-        <v>760.2723052017247</v>
+        <v>1545.478645759958</v>
       </c>
       <c r="D8" t="n">
-        <v>402.0066065949742</v>
+        <v>1187.212947153208</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
         <v>395.0611058457707</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>1889.300420467338</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X8" t="n">
-        <v>1515.834662206258</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="Y8" t="n">
-        <v>1515.834662206258</v>
+        <v>1914.44116270037</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>337.1618402196266</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>337.1618402196266</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>337.1618402196266</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>626.5790102565873</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>626.5790102565873</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>626.5790102565873</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="V10" t="n">
-        <v>626.5790102565873</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W10" t="n">
-        <v>337.1618402196266</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>337.1618402196266</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>337.1618402196266</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2364.262517753843</v>
+        <v>2364.262517753844</v>
       </c>
       <c r="C11" t="n">
-        <v>1995.300000813431</v>
+        <v>1995.300000813432</v>
       </c>
       <c r="D11" t="n">
-        <v>1637.034302206681</v>
+        <v>1637.034302206682</v>
       </c>
       <c r="E11" t="n">
         <v>1251.246049608437</v>
       </c>
       <c r="F11" t="n">
-        <v>840.2601448188291</v>
+        <v>840.26014481883</v>
       </c>
       <c r="G11" t="n">
-        <v>489.4725344065323</v>
+        <v>489.4725344065324</v>
       </c>
       <c r="H11" t="n">
-        <v>180.5700966115924</v>
+        <v>180.5700966115925</v>
       </c>
       <c r="I11" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J11" t="n">
-        <v>360.3114841118949</v>
+        <v>360.3114841118954</v>
       </c>
       <c r="K11" t="n">
-        <v>877.244353952035</v>
+        <v>877.2443539520364</v>
       </c>
       <c r="L11" t="n">
-        <v>1570.821916862107</v>
+        <v>1570.821916862108</v>
       </c>
       <c r="M11" t="n">
-        <v>2359.167139161803</v>
+        <v>2359.167139161804</v>
       </c>
       <c r="N11" t="n">
-        <v>3145.636613802049</v>
+        <v>3145.63661380205</v>
       </c>
       <c r="O11" t="n">
-        <v>3843.089799225528</v>
+        <v>3843.08979922553</v>
       </c>
       <c r="P11" t="n">
-        <v>4400.675573927198</v>
+        <v>4400.6755739272</v>
       </c>
       <c r="Q11" t="n">
-        <v>4742.177509736688</v>
+        <v>4742.177509736689</v>
       </c>
       <c r="R11" t="n">
-        <v>4798.209610573733</v>
+        <v>4798.209610573734</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.733734500489</v>
+        <v>4662.73373450049</v>
       </c>
       <c r="T11" t="n">
         <v>4451.917885018755</v>
       </c>
       <c r="U11" t="n">
-        <v>4198.298990668542</v>
+        <v>4198.298990668543</v>
       </c>
       <c r="V11" t="n">
-        <v>3867.236103324971</v>
+        <v>3867.236103324972</v>
       </c>
       <c r="W11" t="n">
         <v>3514.467448054857</v>
       </c>
       <c r="X11" t="n">
-        <v>3141.001689793777</v>
+        <v>3141.001689793778</v>
       </c>
       <c r="Y11" t="n">
-        <v>2750.862357817965</v>
+        <v>2750.862357817966</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.1033607811196</v>
       </c>
       <c r="I12" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J12" t="n">
-        <v>259.7142486241158</v>
+        <v>134.8841236371111</v>
       </c>
       <c r="K12" t="n">
-        <v>666.2100198733767</v>
+        <v>541.379894886372</v>
       </c>
       <c r="L12" t="n">
-        <v>1236.46628634656</v>
+        <v>1149.368020311758</v>
       </c>
       <c r="M12" t="n">
-        <v>1536.890960298557</v>
+        <v>1449.792694263754</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.675626344293</v>
+        <v>1772.57736030949</v>
       </c>
       <c r="O12" t="n">
-        <v>2132.740739474291</v>
+        <v>2045.642473439489</v>
       </c>
       <c r="P12" t="n">
-        <v>2332.56650036346</v>
+        <v>2540.543015221951</v>
       </c>
       <c r="Q12" t="n">
         <v>2624.202048053398</v>
@@ -5179,22 +5179,22 @@
         <v>562.1925256097742</v>
       </c>
       <c r="D13" t="n">
-        <v>412.0758861974384</v>
+        <v>412.0758861974385</v>
       </c>
       <c r="E13" t="n">
-        <v>264.1627926150453</v>
+        <v>264.1627926150454</v>
       </c>
       <c r="F13" t="n">
-        <v>264.1627926150453</v>
+        <v>264.1627926150454</v>
       </c>
       <c r="G13" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="H13" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="I13" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J13" t="n">
         <v>106.7338304659219</v>
@@ -5203,7 +5203,7 @@
         <v>254.268491133713</v>
       </c>
       <c r="L13" t="n">
-        <v>498.588496985584</v>
+        <v>498.5884969855839</v>
       </c>
       <c r="M13" t="n">
         <v>766.5788100583134</v>
@@ -5230,19 +5230,19 @@
         <v>1475.044937267443</v>
       </c>
       <c r="U13" t="n">
-        <v>1475.044937267443</v>
+        <v>1456.878831610768</v>
       </c>
       <c r="V13" t="n">
-        <v>1469.328008616189</v>
+        <v>1202.194343404881</v>
       </c>
       <c r="W13" t="n">
-        <v>1179.910838579229</v>
+        <v>912.7771733679208</v>
       </c>
       <c r="X13" t="n">
-        <v>951.9212876812112</v>
+        <v>912.7771733679208</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.1287085376811</v>
+        <v>912.7771733679208</v>
       </c>
     </row>
     <row r="14">
@@ -5255,52 +5255,52 @@
         <v>2387.387921344638</v>
       </c>
       <c r="C14" t="n">
-        <v>2018.425404404226</v>
+        <v>2018.425404404227</v>
       </c>
       <c r="D14" t="n">
         <v>1660.159705797476</v>
       </c>
       <c r="E14" t="n">
-        <v>1274.371453199231</v>
+        <v>1274.371453199232</v>
       </c>
       <c r="F14" t="n">
-        <v>863.3855484096239</v>
+        <v>863.3855484096244</v>
       </c>
       <c r="G14" t="n">
-        <v>448.0566723599774</v>
+        <v>448.056672359978</v>
       </c>
       <c r="H14" t="n">
-        <v>147.8469502752316</v>
+        <v>147.8469502752321</v>
       </c>
       <c r="I14" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J14" t="n">
-        <v>263.5125960578223</v>
+        <v>263.5125960578214</v>
       </c>
       <c r="K14" t="n">
-        <v>565.362739226344</v>
+        <v>565.3627392263415</v>
       </c>
       <c r="L14" t="n">
-        <v>1390.220897505259</v>
+        <v>1390.220897505254</v>
       </c>
       <c r="M14" t="n">
-        <v>2324.641077215465</v>
+        <v>2324.641077215459</v>
       </c>
       <c r="N14" t="n">
-        <v>3259.549154793792</v>
+        <v>3259.549154793784</v>
       </c>
       <c r="O14" t="n">
-        <v>4097.168703748484</v>
+        <v>4097.168703748474</v>
       </c>
       <c r="P14" t="n">
-        <v>4468.774154905303</v>
+        <v>4455.802505770836</v>
       </c>
       <c r="Q14" t="n">
-        <v>4689.920457956271</v>
+        <v>4689.920457956273</v>
       </c>
       <c r="R14" t="n">
-        <v>4798.209610573733</v>
+        <v>4798.209610573734</v>
       </c>
       <c r="S14" t="n">
         <v>4682.07563702665</v>
@@ -5309,19 +5309,19 @@
         <v>4474.975385057072</v>
       </c>
       <c r="U14" t="n">
-        <v>4221.424394259338</v>
+        <v>4221.424394259337</v>
       </c>
       <c r="V14" t="n">
-        <v>3890.361506915767</v>
+        <v>3890.361506915766</v>
       </c>
       <c r="W14" t="n">
         <v>3537.592851645652</v>
       </c>
       <c r="X14" t="n">
-        <v>3164.127093384573</v>
+        <v>3164.127093384572</v>
       </c>
       <c r="Y14" t="n">
-        <v>2773.987761408761</v>
+        <v>2773.98776140876</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.9539356346287</v>
+        <v>966.9539356346291</v>
       </c>
       <c r="C15" t="n">
-        <v>792.5009063535017</v>
+        <v>792.5009063535022</v>
       </c>
       <c r="D15" t="n">
-        <v>643.5664966922504</v>
+        <v>643.5664966922509</v>
       </c>
       <c r="E15" t="n">
-        <v>484.329041686795</v>
+        <v>484.3290416867953</v>
       </c>
       <c r="F15" t="n">
-        <v>337.7944837136799</v>
+        <v>337.7944837136803</v>
       </c>
       <c r="G15" t="n">
-        <v>201.2941835971029</v>
+        <v>201.2941835971033</v>
       </c>
       <c r="H15" t="n">
-        <v>109.4672265677441</v>
+        <v>109.4672265677444</v>
       </c>
       <c r="I15" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J15" t="n">
-        <v>176.937026763891</v>
+        <v>176.9370267638905</v>
       </c>
       <c r="K15" t="n">
-        <v>393.4873229022278</v>
+        <v>393.4873229022263</v>
       </c>
       <c r="L15" t="n">
-        <v>730.9884611817638</v>
+        <v>730.9884611817608</v>
       </c>
       <c r="M15" t="n">
-        <v>1144.193238825979</v>
+        <v>1144.193238825974</v>
       </c>
       <c r="N15" t="n">
-        <v>1582.742962320994</v>
+        <v>1582.742962320988</v>
       </c>
       <c r="O15" t="n">
-        <v>1961.710486477335</v>
+        <v>1961.710486477327</v>
       </c>
       <c r="P15" t="n">
-        <v>2452.953115347988</v>
+        <v>2246.532268736614</v>
       </c>
       <c r="Q15" t="n">
         <v>2593.429737548629</v>
@@ -5394,7 +5394,7 @@
         <v>1805.018428353385</v>
       </c>
       <c r="W15" t="n">
-        <v>1550.781071625183</v>
+        <v>1550.781071625184</v>
       </c>
       <c r="X15" t="n">
         <v>1342.929571419651</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1079.350036960522</v>
+        <v>242.854139709385</v>
       </c>
       <c r="C16" t="n">
-        <v>910.4138540326151</v>
+        <v>242.854139709385</v>
       </c>
       <c r="D16" t="n">
-        <v>760.2972146202793</v>
+        <v>242.854139709385</v>
       </c>
       <c r="E16" t="n">
-        <v>658.6966107561946</v>
+        <v>242.854139709385</v>
       </c>
       <c r="F16" t="n">
-        <v>511.8066632582842</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="G16" t="n">
-        <v>343.988802804443</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="H16" t="n">
-        <v>196.7489496192841</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="I16" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J16" t="n">
-        <v>133.1164704543227</v>
+        <v>133.1164704543224</v>
       </c>
       <c r="K16" t="n">
-        <v>324.0059130498221</v>
+        <v>324.0059130498178</v>
       </c>
       <c r="L16" t="n">
-        <v>623.8051132401663</v>
+        <v>623.8051132401612</v>
       </c>
       <c r="M16" t="n">
-        <v>950.2904579857766</v>
+        <v>950.2904579857707</v>
       </c>
       <c r="N16" t="n">
-        <v>1274.447327385816</v>
+        <v>1274.447327385809</v>
       </c>
       <c r="O16" t="n">
-        <v>1557.842367071929</v>
+        <v>1557.842367071921</v>
       </c>
       <c r="P16" t="n">
-        <v>1776.815099300473</v>
+        <v>1776.815099300465</v>
       </c>
       <c r="Q16" t="n">
-        <v>1844.985388692817</v>
+        <v>1844.985388692808</v>
       </c>
       <c r="R16" t="n">
-        <v>1749.983041849812</v>
+        <v>1844.985388692808</v>
       </c>
       <c r="S16" t="n">
-        <v>1556.292606046185</v>
+        <v>1651.294952889181</v>
       </c>
       <c r="T16" t="n">
-        <v>1334.034525166409</v>
+        <v>1429.036872009405</v>
       </c>
       <c r="U16" t="n">
-        <v>1334.034525166409</v>
+        <v>1139.927731108036</v>
       </c>
       <c r="V16" t="n">
-        <v>1079.350036960522</v>
+        <v>885.2432429021488</v>
       </c>
       <c r="W16" t="n">
-        <v>1079.350036960522</v>
+        <v>595.8260728651883</v>
       </c>
       <c r="X16" t="n">
-        <v>1079.350036960522</v>
+        <v>367.8365219671709</v>
       </c>
       <c r="Y16" t="n">
-        <v>1079.350036960522</v>
+        <v>367.8365219671709</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2387.387921344638</v>
+        <v>2387.387921344639</v>
       </c>
       <c r="C17" t="n">
         <v>2018.425404404227</v>
       </c>
       <c r="D17" t="n">
-        <v>1660.159705797476</v>
+        <v>1660.159705797477</v>
       </c>
       <c r="E17" t="n">
-        <v>1274.371453199232</v>
+        <v>1274.371453199233</v>
       </c>
       <c r="F17" t="n">
-        <v>863.3855484096243</v>
+        <v>863.385548409625</v>
       </c>
       <c r="G17" t="n">
-        <v>448.0566723599777</v>
+        <v>448.0566723599784</v>
       </c>
       <c r="H17" t="n">
-        <v>147.8469502752323</v>
+        <v>147.8469502752321</v>
       </c>
       <c r="I17" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J17" t="n">
-        <v>263.5125960578223</v>
+        <v>430.9182450781743</v>
       </c>
       <c r="K17" t="n">
-        <v>643.393644035051</v>
+        <v>1053.672346692148</v>
       </c>
       <c r="L17" t="n">
-        <v>1468.251802313966</v>
+        <v>1817.471093796671</v>
       </c>
       <c r="M17" t="n">
-        <v>2402.671982024172</v>
+        <v>2306.872875348971</v>
       </c>
       <c r="N17" t="n">
-        <v>3337.580059602499</v>
+        <v>2808.807497759431</v>
       </c>
       <c r="O17" t="n">
-        <v>4175.199608557192</v>
+        <v>3646.427046714122</v>
       </c>
       <c r="P17" t="n">
-        <v>4533.833410579556</v>
+        <v>4323.641569826252</v>
       </c>
       <c r="Q17" t="n">
-        <v>4754.979713630524</v>
+        <v>4754.979713630525</v>
       </c>
       <c r="R17" t="n">
-        <v>4798.209610573733</v>
+        <v>4798.209610573734</v>
       </c>
       <c r="S17" t="n">
-        <v>4682.075637026649</v>
+        <v>4682.07563702665</v>
       </c>
       <c r="T17" t="n">
-        <v>4474.975385057071</v>
+        <v>4474.975385057072</v>
       </c>
       <c r="U17" t="n">
-        <v>4221.424394259337</v>
+        <v>4221.424394259338</v>
       </c>
       <c r="V17" t="n">
-        <v>3890.361506915766</v>
+        <v>3890.361506915767</v>
       </c>
       <c r="W17" t="n">
         <v>3537.592851645652</v>
       </c>
       <c r="X17" t="n">
-        <v>3164.127093384572</v>
+        <v>3164.127093384573</v>
       </c>
       <c r="Y17" t="n">
-        <v>2773.98776140876</v>
+        <v>2773.987761408761</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.9539356346287</v>
+        <v>966.9539356346291</v>
       </c>
       <c r="C18" t="n">
-        <v>792.5009063535017</v>
+        <v>792.5009063535022</v>
       </c>
       <c r="D18" t="n">
-        <v>643.5664966922504</v>
+        <v>643.5664966922509</v>
       </c>
       <c r="E18" t="n">
-        <v>484.329041686795</v>
+        <v>484.3290416867953</v>
       </c>
       <c r="F18" t="n">
-        <v>337.7944837136799</v>
+        <v>337.7944837136803</v>
       </c>
       <c r="G18" t="n">
-        <v>201.2941835971029</v>
+        <v>201.2941835971033</v>
       </c>
       <c r="H18" t="n">
-        <v>109.4672265677441</v>
+        <v>109.4672265677444</v>
       </c>
       <c r="I18" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J18" t="n">
-        <v>301.7671517508958</v>
+        <v>176.9370267638905</v>
       </c>
       <c r="K18" t="n">
-        <v>518.3174478892327</v>
+        <v>599.9081695136006</v>
       </c>
       <c r="L18" t="n">
-        <v>855.8185861687687</v>
+        <v>937.4093077931352</v>
       </c>
       <c r="M18" t="n">
-        <v>1269.023363812984</v>
+        <v>1350.614085437349</v>
       </c>
       <c r="N18" t="n">
-        <v>1707.573087307999</v>
+        <v>1789.163808932362</v>
       </c>
       <c r="O18" t="n">
-        <v>2086.540611464339</v>
+        <v>2168.131333088701</v>
       </c>
       <c r="P18" t="n">
-        <v>2371.362393723628</v>
+        <v>2452.953115347989</v>
       </c>
       <c r="Q18" t="n">
         <v>2593.429737548629</v>
@@ -5631,7 +5631,7 @@
         <v>1805.018428353385</v>
       </c>
       <c r="W18" t="n">
-        <v>1550.781071625183</v>
+        <v>1550.781071625184</v>
       </c>
       <c r="X18" t="n">
         <v>1342.929571419651</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>582.8348750055585</v>
+        <v>242.854139709385</v>
       </c>
       <c r="C19" t="n">
-        <v>413.8986920776516</v>
+        <v>242.854139709385</v>
       </c>
       <c r="D19" t="n">
-        <v>263.7820526653159</v>
+        <v>242.854139709385</v>
       </c>
       <c r="E19" t="n">
-        <v>263.7820526653159</v>
+        <v>242.854139709385</v>
       </c>
       <c r="F19" t="n">
-        <v>263.7820526653159</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="G19" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="H19" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="I19" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J19" t="n">
-        <v>133.1164704543227</v>
+        <v>133.1164704543224</v>
       </c>
       <c r="K19" t="n">
-        <v>324.0059130498188</v>
+        <v>324.0059130498178</v>
       </c>
       <c r="L19" t="n">
-        <v>623.8051132401629</v>
+        <v>623.8051132401612</v>
       </c>
       <c r="M19" t="n">
-        <v>950.2904579857732</v>
+        <v>950.2904579857707</v>
       </c>
       <c r="N19" t="n">
-        <v>1274.447327385812</v>
+        <v>1274.447327385809</v>
       </c>
       <c r="O19" t="n">
-        <v>1557.842367071925</v>
+        <v>1557.842367071921</v>
       </c>
       <c r="P19" t="n">
-        <v>1776.815099300469</v>
+        <v>1776.815099300465</v>
       </c>
       <c r="Q19" t="n">
-        <v>1844.985388692813</v>
+        <v>1844.985388692808</v>
       </c>
       <c r="R19" t="n">
-        <v>1844.985388692813</v>
+        <v>1844.985388692808</v>
       </c>
       <c r="S19" t="n">
-        <v>1844.985388692813</v>
+        <v>1651.294952889181</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.727307813037</v>
+        <v>1429.036872009405</v>
       </c>
       <c r="U19" t="n">
-        <v>1333.618166911668</v>
+        <v>1139.927731108036</v>
       </c>
       <c r="V19" t="n">
-        <v>1333.618166911668</v>
+        <v>885.2432429021488</v>
       </c>
       <c r="W19" t="n">
-        <v>1213.265469877346</v>
+        <v>595.8260728651883</v>
       </c>
       <c r="X19" t="n">
-        <v>985.2759189793284</v>
+        <v>367.8365219671709</v>
       </c>
       <c r="Y19" t="n">
-        <v>764.4833398357982</v>
+        <v>242.854139709385</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2387.387921344637</v>
+        <v>2387.387921344638</v>
       </c>
       <c r="C20" t="n">
-        <v>2018.425404404226</v>
+        <v>2018.425404404227</v>
       </c>
       <c r="D20" t="n">
-        <v>1660.159705797475</v>
+        <v>1660.159705797476</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.371453199231</v>
+        <v>1274.371453199232</v>
       </c>
       <c r="F20" t="n">
-        <v>863.3855484096239</v>
+        <v>863.3855484096248</v>
       </c>
       <c r="G20" t="n">
-        <v>448.0566723599774</v>
+        <v>448.0566723599784</v>
       </c>
       <c r="H20" t="n">
-        <v>147.8469502752316</v>
+        <v>147.846950275232</v>
       </c>
       <c r="I20" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J20" t="n">
-        <v>263.5125960578223</v>
+        <v>263.5125960578214</v>
       </c>
       <c r="K20" t="n">
-        <v>565.362739226344</v>
+        <v>701.8051023954125</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.220897505259</v>
+        <v>1526.663260674325</v>
       </c>
       <c r="M20" t="n">
-        <v>2324.641077215465</v>
+        <v>2461.08344038453</v>
       </c>
       <c r="N20" t="n">
-        <v>3259.549154793792</v>
+        <v>3395.991517962855</v>
       </c>
       <c r="O20" t="n">
-        <v>3720.176524298367</v>
+        <v>3856.618887467428</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.391047410499</v>
+        <v>4533.833410579557</v>
       </c>
       <c r="Q20" t="n">
-        <v>4689.920457956271</v>
+        <v>4754.979713630525</v>
       </c>
       <c r="R20" t="n">
-        <v>4798.209610573733</v>
+        <v>4798.209610573734</v>
       </c>
       <c r="S20" t="n">
-        <v>4682.075637026649</v>
+        <v>4682.07563702665</v>
       </c>
       <c r="T20" t="n">
-        <v>4474.975385057071</v>
+        <v>4474.975385057072</v>
       </c>
       <c r="U20" t="n">
-        <v>4221.424394259336</v>
+        <v>4221.424394259337</v>
       </c>
       <c r="V20" t="n">
-        <v>3890.361506915765</v>
+        <v>3890.361506915766</v>
       </c>
       <c r="W20" t="n">
-        <v>3537.592851645651</v>
+        <v>3537.592851645652</v>
       </c>
       <c r="X20" t="n">
-        <v>3164.127093384571</v>
+        <v>3164.127093384572</v>
       </c>
       <c r="Y20" t="n">
-        <v>2773.987761408759</v>
+        <v>2773.98776140876</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.9539356346287</v>
+        <v>966.9539356346291</v>
       </c>
       <c r="C21" t="n">
-        <v>792.5009063535017</v>
+        <v>792.5009063535022</v>
       </c>
       <c r="D21" t="n">
-        <v>643.5664966922504</v>
+        <v>643.5664966922509</v>
       </c>
       <c r="E21" t="n">
-        <v>484.329041686795</v>
+        <v>484.3290416867953</v>
       </c>
       <c r="F21" t="n">
-        <v>337.7944837136799</v>
+        <v>337.7944837136803</v>
       </c>
       <c r="G21" t="n">
-        <v>201.2941835971029</v>
+        <v>201.2941835971033</v>
       </c>
       <c r="H21" t="n">
-        <v>109.4672265677441</v>
+        <v>109.4672265677444</v>
       </c>
       <c r="I21" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J21" t="n">
-        <v>301.7671517508958</v>
+        <v>301.7671517508952</v>
       </c>
       <c r="K21" t="n">
-        <v>518.3174478892327</v>
+        <v>518.3174478892311</v>
       </c>
       <c r="L21" t="n">
-        <v>855.8185861687687</v>
+        <v>855.8185861687657</v>
       </c>
       <c r="M21" t="n">
-        <v>1269.023363812984</v>
+        <v>1269.023363812979</v>
       </c>
       <c r="N21" t="n">
-        <v>1707.573087307999</v>
+        <v>1707.573087307993</v>
       </c>
       <c r="O21" t="n">
-        <v>2086.540611464339</v>
+        <v>2086.540611464332</v>
       </c>
       <c r="P21" t="n">
-        <v>2452.953115347988</v>
+        <v>2371.362393723619</v>
       </c>
       <c r="Q21" t="n">
         <v>2593.429737548629</v>
@@ -5868,7 +5868,7 @@
         <v>1805.018428353385</v>
       </c>
       <c r="W21" t="n">
-        <v>1550.781071625183</v>
+        <v>1550.781071625184</v>
       </c>
       <c r="X21" t="n">
         <v>1342.929571419651</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.9003751393816</v>
+        <v>243.8772857938678</v>
       </c>
       <c r="C22" t="n">
-        <v>95.96419221147465</v>
+        <v>243.8772857938678</v>
       </c>
       <c r="D22" t="n">
-        <v>95.96419221147465</v>
+        <v>243.8772857938678</v>
       </c>
       <c r="E22" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="F22" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="G22" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="H22" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="I22" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J22" t="n">
-        <v>133.1164704543227</v>
+        <v>133.1164704543224</v>
       </c>
       <c r="K22" t="n">
-        <v>324.0059130498188</v>
+        <v>324.0059130498178</v>
       </c>
       <c r="L22" t="n">
-        <v>623.8051132401629</v>
+        <v>623.8051132401612</v>
       </c>
       <c r="M22" t="n">
-        <v>950.2904579857732</v>
+        <v>950.2904579857707</v>
       </c>
       <c r="N22" t="n">
-        <v>1274.447327385812</v>
+        <v>1274.447327385809</v>
       </c>
       <c r="O22" t="n">
-        <v>1557.842367071925</v>
+        <v>1557.842367071921</v>
       </c>
       <c r="P22" t="n">
-        <v>1776.815099300469</v>
+        <v>1776.815099300465</v>
       </c>
       <c r="Q22" t="n">
-        <v>1844.985388692813</v>
+        <v>1844.985388692808</v>
       </c>
       <c r="R22" t="n">
-        <v>1844.985388692813</v>
+        <v>1844.985388692808</v>
       </c>
       <c r="S22" t="n">
-        <v>1844.985388692813</v>
+        <v>1651.294952889181</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.727307813037</v>
+        <v>1429.036872009405</v>
       </c>
       <c r="U22" t="n">
-        <v>1333.618166911668</v>
+        <v>1139.927731108036</v>
       </c>
       <c r="V22" t="n">
-        <v>1078.933678705781</v>
+        <v>885.2432429021488</v>
       </c>
       <c r="W22" t="n">
-        <v>789.5165086688201</v>
+        <v>595.8260728651883</v>
       </c>
       <c r="X22" t="n">
-        <v>561.5269577708027</v>
+        <v>367.8365219671709</v>
       </c>
       <c r="Y22" t="n">
-        <v>446.5488399696213</v>
+        <v>367.8365219671709</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5966,52 @@
         <v>2387.387921344638</v>
       </c>
       <c r="C23" t="n">
-        <v>2018.425404404226</v>
+        <v>2018.425404404227</v>
       </c>
       <c r="D23" t="n">
         <v>1660.159705797476</v>
       </c>
       <c r="E23" t="n">
-        <v>1274.371453199231</v>
+        <v>1274.371453199232</v>
       </c>
       <c r="F23" t="n">
-        <v>863.3855484096239</v>
+        <v>863.3855484096246</v>
       </c>
       <c r="G23" t="n">
-        <v>448.0566723599774</v>
+        <v>448.056672359978</v>
       </c>
       <c r="H23" t="n">
-        <v>147.8469502752316</v>
+        <v>147.8469502752321</v>
       </c>
       <c r="I23" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J23" t="n">
-        <v>430.9182450781753</v>
+        <v>263.5125960578214</v>
       </c>
       <c r="K23" t="n">
-        <v>1053.67234669215</v>
+        <v>886.2666976717946</v>
       </c>
       <c r="L23" t="n">
-        <v>1752.411838122407</v>
+        <v>1711.124855950707</v>
       </c>
       <c r="M23" t="n">
-        <v>2241.81361967471</v>
+        <v>2645.545035660912</v>
       </c>
       <c r="N23" t="n">
-        <v>2743.748242085172</v>
+        <v>3580.453113239237</v>
       </c>
       <c r="O23" t="n">
-        <v>3581.367791039865</v>
+        <v>4041.08048274381</v>
       </c>
       <c r="P23" t="n">
-        <v>4258.582314151996</v>
+        <v>4533.833410579557</v>
       </c>
       <c r="Q23" t="n">
-        <v>4689.92045795627</v>
+        <v>4754.979713630524</v>
       </c>
       <c r="R23" t="n">
-        <v>4798.209610573732</v>
+        <v>4798.209610573733</v>
       </c>
       <c r="S23" t="n">
         <v>4682.075637026649</v>
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.9539356346287</v>
+        <v>966.9539356346291</v>
       </c>
       <c r="C24" t="n">
-        <v>792.5009063535017</v>
+        <v>792.5009063535022</v>
       </c>
       <c r="D24" t="n">
-        <v>643.5664966922504</v>
+        <v>643.5664966922509</v>
       </c>
       <c r="E24" t="n">
-        <v>484.329041686795</v>
+        <v>484.3290416867953</v>
       </c>
       <c r="F24" t="n">
-        <v>337.7944837136799</v>
+        <v>337.7944837136803</v>
       </c>
       <c r="G24" t="n">
-        <v>201.2941835971029</v>
+        <v>201.2941835971033</v>
       </c>
       <c r="H24" t="n">
-        <v>109.4672265677441</v>
+        <v>109.4672265677444</v>
       </c>
       <c r="I24" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J24" t="n">
-        <v>176.937026763891</v>
+        <v>301.7671517508952</v>
       </c>
       <c r="K24" t="n">
-        <v>393.4873229022278</v>
+        <v>518.3174478892311</v>
       </c>
       <c r="L24" t="n">
-        <v>730.9884611817638</v>
+        <v>855.8185861687657</v>
       </c>
       <c r="M24" t="n">
-        <v>1350.614085437343</v>
+        <v>1269.023363812979</v>
       </c>
       <c r="N24" t="n">
-        <v>1789.163808932359</v>
+        <v>1707.573087307993</v>
       </c>
       <c r="O24" t="n">
-        <v>2168.131333088699</v>
+        <v>2086.540611464332</v>
       </c>
       <c r="P24" t="n">
-        <v>2452.953115347988</v>
+        <v>2371.362393723619</v>
       </c>
       <c r="Q24" t="n">
         <v>2593.429737548629</v>
@@ -6105,7 +6105,7 @@
         <v>1805.018428353385</v>
       </c>
       <c r="W24" t="n">
-        <v>1550.781071625183</v>
+        <v>1550.781071625184</v>
       </c>
       <c r="X24" t="n">
         <v>1342.929571419651</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>412.8134687217747</v>
+        <v>147.0439428236408</v>
       </c>
       <c r="C25" t="n">
-        <v>243.8772857938678</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="D25" t="n">
-        <v>243.8772857938678</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="E25" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="F25" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="G25" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="H25" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="I25" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J25" t="n">
-        <v>133.1164704543227</v>
+        <v>133.1164704543224</v>
       </c>
       <c r="K25" t="n">
-        <v>324.0059130498188</v>
+        <v>324.0059130498178</v>
       </c>
       <c r="L25" t="n">
-        <v>623.8051132401629</v>
+        <v>623.8051132401612</v>
       </c>
       <c r="M25" t="n">
-        <v>950.2904579857732</v>
+        <v>950.2904579857707</v>
       </c>
       <c r="N25" t="n">
-        <v>1274.447327385812</v>
+        <v>1274.447327385809</v>
       </c>
       <c r="O25" t="n">
-        <v>1557.842367071925</v>
+        <v>1557.842367071921</v>
       </c>
       <c r="P25" t="n">
-        <v>1776.815099300469</v>
+        <v>1776.815099300465</v>
       </c>
       <c r="Q25" t="n">
-        <v>1844.985388692813</v>
+        <v>1844.985388692808</v>
       </c>
       <c r="R25" t="n">
-        <v>1749.983041849809</v>
+        <v>1844.985388692808</v>
       </c>
       <c r="S25" t="n">
-        <v>1749.983041849809</v>
+        <v>1651.294952889181</v>
       </c>
       <c r="T25" t="n">
-        <v>1749.983041849809</v>
+        <v>1429.036872009405</v>
       </c>
       <c r="U25" t="n">
-        <v>1460.87390094844</v>
+        <v>1139.927731108036</v>
       </c>
       <c r="V25" t="n">
-        <v>1206.189412742553</v>
+        <v>885.2432429021488</v>
       </c>
       <c r="W25" t="n">
-        <v>916.7722427055921</v>
+        <v>595.8260728651883</v>
       </c>
       <c r="X25" t="n">
-        <v>688.7826918075748</v>
+        <v>367.8365219671709</v>
       </c>
       <c r="Y25" t="n">
-        <v>594.4619335520144</v>
+        <v>147.0439428236408</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6294,31 +6294,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6491,16 +6491,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6704,13 +6704,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6783,7 +6783,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774088</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E34" t="n">
-        <v>463.898150743089</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819766</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,13 +6877,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6892,16 +6892,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6962,19 +6962,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,64 +6990,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H37" t="n">
         <v>145.4370786819758</v>
@@ -7099,7 +7099,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7120,7 +7120,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T37" t="n">
         <v>1967.452490122057</v>
@@ -7129,7 +7129,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W37" t="n">
         <v>1276.596863849073</v>
@@ -7138,7 +7138,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>888.4135721382786</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1339.447785386687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2317.998088216516</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3297.750360443163</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7324,7 +7324,7 @@
         <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,7 +7351,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
@@ -7388,67 +7388,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2215.249704195857</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>3195.001976422504</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320242</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160445</v>
@@ -7567,13 +7567,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
         <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7597,7 +7597,7 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
         <v>1725.799256195773</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7673,25 +7673,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>332.7273564628508</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>298.0553342356499</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>36.49101924097577</v>
+        <v>36.49101924097579</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8942,10 +8942,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>13.10267589338832</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>13.10267589340302</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>208.5059056680451</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>208.5059056680551</v>
       </c>
       <c r="R15" t="n">
-        <v>8.576157487434727</v>
+        <v>8.576157487435097</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>78.81909576637065</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>355.9850416470267</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>208.5059056680549</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.41487032763641</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.576157487434727</v>
+        <v>8.576157487435097</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>137.8205688576475</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>72.10414898465021</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>82.41487032763638</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>82.41487032764593</v>
       </c>
       <c r="R21" t="n">
-        <v>8.576157487434727</v>
+        <v>8.576157487435097</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>290.268621774028</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>135.4738644579642</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>208.5059056680449</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>82.41487032764593</v>
       </c>
       <c r="R24" t="n">
-        <v>8.576157487434727</v>
+        <v>8.576157487435097</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,16 +10352,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>344.7025836476839</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>103.7862464855144</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,16 +10835,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,16 +11072,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>103.7862464855143</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>295.340870917442</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>295.3408709174484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>64.73615944289179</v>
+        <v>64.73615944289094</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>221.6460300583344</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2386094496405</v>
+        <v>268.2541648495327</v>
       </c>
       <c r="V13" t="n">
-        <v>246.4778839590868</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>56.09942174672926</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>45.84936482112528</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.1396818493028</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.7674546533074</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>99.77690983373151</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>94.05232337457477</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2180494923551</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.1396818493028</v>
       </c>
       <c r="H19" t="n">
         <v>145.7674546533074</v>
       </c>
       <c r="I19" t="n">
-        <v>99.77690983373134</v>
+        <v>99.77690983373151</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>94.05232337457453</v>
+        <v>94.05232337457477</v>
       </c>
       <c r="S19" t="n">
-        <v>191.7535314455904</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>167.3738282726123</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>94.85209491688676</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.1123363703672</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>145.7674546533074</v>
       </c>
       <c r="I22" t="n">
-        <v>99.77690983373134</v>
+        <v>99.77690983373151</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>94.05232337457453</v>
+        <v>94.05232337457477</v>
       </c>
       <c r="S22" t="n">
-        <v>191.7535314455904</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>104.7563167289252</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>116.6778679925833</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>145.7674546533074</v>
       </c>
       <c r="I25" t="n">
-        <v>99.77690983373134</v>
+        <v>99.77690983373151</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>94.05232337457477</v>
       </c>
       <c r="S25" t="n">
-        <v>191.7535314455904</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.0355000709787</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.2071026790901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-6.343814490393903e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-7.673861546209082e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1220650.18657191</v>
+        <v>1220650.186571911</v>
       </c>
     </row>
     <row r="3">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219321.475048295</v>
+        <v>219321.4750482952</v>
       </c>
       <c r="C2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
         <v>213484.8928338584</v>
       </c>
       <c r="F2" t="n">
-        <v>217584.5564822952</v>
+        <v>217584.5564822951</v>
       </c>
       <c r="G2" t="n">
-        <v>217584.5564822952</v>
+        <v>217584.5564822951</v>
       </c>
       <c r="H2" t="n">
         <v>217584.5564822952</v>
@@ -26338,13 +26338,13 @@
         <v>218394.9827878408</v>
       </c>
       <c r="K2" t="n">
-        <v>218394.9827878408</v>
+        <v>218394.9827878407</v>
       </c>
       <c r="L2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="N2" t="n">
         <v>225786.486712678</v>
@@ -26375,7 +26375,7 @@
         <v>510216.428859412</v>
       </c>
       <c r="F3" t="n">
-        <v>165223.7402705878</v>
+        <v>165223.7402705856</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221821.0542122908</v>
+        <v>221821.0542122929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
         <v>130898.1714288279</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169930.4475800587</v>
+        <v>169930.4475800591</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26427,37 +26427,37 @@
         <v>36668.30966185972</v>
       </c>
       <c r="F4" t="n">
-        <v>22598.28697482979</v>
+        <v>22598.28697483</v>
       </c>
       <c r="G4" t="n">
-        <v>22598.28697482979</v>
+        <v>22598.28697482997</v>
       </c>
       <c r="H4" t="n">
-        <v>22598.28697482979</v>
+        <v>22598.28697482999</v>
       </c>
       <c r="I4" t="n">
-        <v>22598.28697482977</v>
+        <v>22598.28697482998</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="L4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="M4" t="n">
+        <v>33605.65329740897</v>
+      </c>
+      <c r="N4" t="n">
+        <v>33605.65329740899</v>
+      </c>
+      <c r="O4" t="n">
         <v>33605.65329740894</v>
       </c>
-      <c r="N4" t="n">
-        <v>33605.65329740897</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33605.65329740897</v>
-      </c>
       <c r="P4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>90756.5181023286</v>
+        <v>90756.51810232861</v>
       </c>
       <c r="F5" t="n">
-        <v>95313.28996868087</v>
+        <v>95313.28996868082</v>
       </c>
       <c r="G5" t="n">
-        <v>95313.28996868087</v>
+        <v>95313.28996868082</v>
       </c>
       <c r="H5" t="n">
-        <v>95313.28996868087</v>
+        <v>95313.28996868082</v>
       </c>
       <c r="I5" t="n">
-        <v>95313.28996868087</v>
+        <v>95313.28996868082</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-623435.9298097176</v>
+        <v>-623494.7026430304</v>
       </c>
       <c r="C6" t="n">
-        <v>-40421.27820785943</v>
+        <v>-40421.2782078594</v>
       </c>
       <c r="D6" t="n">
-        <v>-40421.27820785952</v>
+        <v>-40421.2782078594</v>
       </c>
       <c r="E6" t="n">
-        <v>-424156.3637897419</v>
+        <v>-424268.1964613675</v>
       </c>
       <c r="F6" t="n">
-        <v>-65550.76073180336</v>
+        <v>-65625.3237338957</v>
       </c>
       <c r="G6" t="n">
-        <v>99672.97953878449</v>
+        <v>99598.41653668994</v>
       </c>
       <c r="H6" t="n">
-        <v>99672.97953878452</v>
+        <v>99598.41653668997</v>
       </c>
       <c r="I6" t="n">
-        <v>99672.97953878449</v>
+        <v>99598.41653668994</v>
       </c>
       <c r="J6" t="n">
-        <v>-117958.0819973536</v>
+        <v>-118025.2774875815</v>
       </c>
       <c r="K6" t="n">
-        <v>103862.9722149372</v>
+        <v>103795.7767247114</v>
       </c>
       <c r="L6" t="n">
-        <v>54268.05310629294</v>
+        <v>54268.05310629297</v>
       </c>
       <c r="M6" t="n">
-        <v>-39050.00902766084</v>
+        <v>-39050.00902766096</v>
       </c>
       <c r="N6" t="n">
         <v>91848.16240116692</v>
       </c>
       <c r="O6" t="n">
-        <v>91848.16240116695</v>
+        <v>91848.16240116692</v>
       </c>
       <c r="P6" t="n">
-        <v>91848.16240116686</v>
+        <v>91848.16240116692</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859258</v>
@@ -26738,25 +26738,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>817.6023863122875</v>
+        <v>817.6023863122874</v>
       </c>
       <c r="F3" t="n">
-        <v>1026.628618713768</v>
+        <v>1026.628618713765</v>
       </c>
       <c r="G3" t="n">
-        <v>1026.628618713768</v>
+        <v>1026.628618713765</v>
       </c>
       <c r="H3" t="n">
-        <v>1026.628618713768</v>
+        <v>1026.628618713765</v>
       </c>
       <c r="I3" t="n">
-        <v>1026.628618713768</v>
+        <v>1026.628618713765</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>439.8587220952009</v>
+        <v>439.8587220952007</v>
       </c>
       <c r="F3" t="n">
-        <v>209.02623240148</v>
+        <v>209.0262324014772</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.14808187953076</v>
+        <v>63.14808187953372</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2651298888776</v>
+        <v>525.2651298888778</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>669.2478007160526</v>
+        <v>669.2478007160523</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2651298888776</v>
+        <v>525.2651298888778</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2651298888776</v>
+        <v>525.2651298888778</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>281.6968943849283</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>224.485389591819</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27537,16 +27537,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>170.6111335945614</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>68.4048137112722</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>2.394271392271492</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>143.527549167032</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>168.3081080162913</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>4.576092919610574</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>93.67136369983032</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>111.6110647396704</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>51.79469286292863</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,25 +31753,25 @@
         <v>3.286843764069495</v>
       </c>
       <c r="H11" t="n">
-        <v>33.66138869877673</v>
+        <v>33.66138869877672</v>
       </c>
       <c r="I11" t="n">
         <v>126.7160442142893</v>
       </c>
       <c r="J11" t="n">
-        <v>278.9667559206936</v>
+        <v>278.9667559206935</v>
       </c>
       <c r="K11" t="n">
-        <v>418.0988524537554</v>
+        <v>418.0988524537553</v>
       </c>
       <c r="L11" t="n">
-        <v>518.6885972983973</v>
+        <v>518.6885972983972</v>
       </c>
       <c r="M11" t="n">
-        <v>577.1410050876682</v>
+        <v>577.1410050876681</v>
       </c>
       <c r="N11" t="n">
-        <v>586.4797499323307</v>
+        <v>586.4797499323306</v>
       </c>
       <c r="O11" t="n">
         <v>553.7961972533645</v>
@@ -31786,7 +31786,7 @@
         <v>206.4671995947306</v>
       </c>
       <c r="S11" t="n">
-        <v>74.8989522737337</v>
+        <v>74.89895227373368</v>
       </c>
       <c r="T11" t="n">
         <v>14.38815857721422</v>
@@ -31835,7 +31835,7 @@
         <v>16.98453259112884</v>
       </c>
       <c r="I12" t="n">
-        <v>60.54885596746659</v>
+        <v>60.54885596746658</v>
       </c>
       <c r="J12" t="n">
         <v>166.150688712764</v>
@@ -31844,16 +31844,16 @@
         <v>283.977991102448</v>
       </c>
       <c r="L12" t="n">
-        <v>381.843454098017</v>
+        <v>381.8434540980169</v>
       </c>
       <c r="M12" t="n">
-        <v>445.5933005401967</v>
+        <v>445.5933005401966</v>
       </c>
       <c r="N12" t="n">
-        <v>457.3868293012485</v>
+        <v>457.3868293012484</v>
       </c>
       <c r="O12" t="n">
-        <v>418.4195910404025</v>
+        <v>418.4195910404024</v>
       </c>
       <c r="P12" t="n">
         <v>335.8186103326828</v>
@@ -31868,7 +31868,7 @@
         <v>32.66552930219373</v>
       </c>
       <c r="T12" t="n">
-        <v>7.08845842472634</v>
+        <v>7.088458424726339</v>
       </c>
       <c r="U12" t="n">
         <v>0.1156984508932483</v>
@@ -31923,7 +31923,7 @@
         <v>171.2944015913284</v>
       </c>
       <c r="L13" t="n">
-        <v>219.1978594385435</v>
+        <v>219.1978594385434</v>
       </c>
       <c r="M13" t="n">
         <v>231.1134089702093</v>
@@ -31941,16 +31941,16 @@
         <v>123.4579603331554</v>
       </c>
       <c r="R13" t="n">
-        <v>66.29280988033726</v>
+        <v>66.29280988033724</v>
       </c>
       <c r="S13" t="n">
         <v>25.69416023869925</v>
       </c>
       <c r="T13" t="n">
-        <v>6.299559369947131</v>
+        <v>6.29955936994713</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08041990685038902</v>
+        <v>0.08041990685038901</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.127150225984992</v>
+        <v>4.12715022598498</v>
       </c>
       <c r="H14" t="n">
-        <v>42.26717725186881</v>
+        <v>42.26717725186869</v>
       </c>
       <c r="I14" t="n">
-        <v>159.1119590872866</v>
+        <v>159.1119590872861</v>
       </c>
       <c r="J14" t="n">
-        <v>350.286716492694</v>
+        <v>350.286716492693</v>
       </c>
       <c r="K14" t="n">
-        <v>524.9889855586389</v>
+        <v>524.9889855586373</v>
       </c>
       <c r="L14" t="n">
-        <v>651.2952592871272</v>
+        <v>651.2952592871253</v>
       </c>
       <c r="M14" t="n">
-        <v>724.6914671184877</v>
+        <v>724.6914671184857</v>
       </c>
       <c r="N14" t="n">
-        <v>736.4177326980677</v>
+        <v>736.4177326980656</v>
       </c>
       <c r="O14" t="n">
-        <v>695.3783826384293</v>
+        <v>695.3783826384274</v>
       </c>
       <c r="P14" t="n">
-        <v>593.4893614344248</v>
+        <v>593.489361434423</v>
       </c>
       <c r="Q14" t="n">
-        <v>445.6857939663371</v>
+        <v>445.6857939663358</v>
       </c>
       <c r="R14" t="n">
-        <v>259.25210038303</v>
+        <v>259.2521003830292</v>
       </c>
       <c r="S14" t="n">
-        <v>94.0474357746331</v>
+        <v>94.04743577463283</v>
       </c>
       <c r="T14" t="n">
-        <v>18.06660011424931</v>
+        <v>18.06660011424926</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3301720180787993</v>
+        <v>0.3301720180787984</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.208220047799425</v>
+        <v>2.208220047799418</v>
       </c>
       <c r="H15" t="n">
-        <v>21.32675677743129</v>
+        <v>21.32675677743123</v>
       </c>
       <c r="I15" t="n">
-        <v>76.02862883870827</v>
+        <v>76.02862883870804</v>
       </c>
       <c r="J15" t="n">
-        <v>208.6283686388044</v>
+        <v>208.6283686388038</v>
       </c>
       <c r="K15" t="n">
-        <v>356.5791118413659</v>
+        <v>356.5791118413649</v>
       </c>
       <c r="L15" t="n">
-        <v>479.4646204662742</v>
+        <v>479.4646204662728</v>
       </c>
       <c r="M15" t="n">
-        <v>559.5125971990033</v>
+        <v>559.5125971990017</v>
       </c>
       <c r="N15" t="n">
-        <v>574.321230765167</v>
+        <v>574.3212307651654</v>
       </c>
       <c r="O15" t="n">
-        <v>525.3917233902429</v>
+        <v>525.3917233902414</v>
       </c>
       <c r="P15" t="n">
-        <v>421.6731773732077</v>
+        <v>421.6731773732065</v>
       </c>
       <c r="Q15" t="n">
-        <v>281.8773520664669</v>
+        <v>281.8773520664661</v>
       </c>
       <c r="R15" t="n">
-        <v>137.1033464765292</v>
+        <v>137.1033464765289</v>
       </c>
       <c r="S15" t="n">
-        <v>41.01671887030946</v>
+        <v>41.01671887030934</v>
       </c>
       <c r="T15" t="n">
-        <v>8.900676420735397</v>
+        <v>8.900676420735371</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1452776347236464</v>
+        <v>0.145277634723646</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.851297509155974</v>
+        <v>1.851297509155969</v>
       </c>
       <c r="H16" t="n">
-        <v>16.45971785413222</v>
+        <v>16.45971785413217</v>
       </c>
       <c r="I16" t="n">
-        <v>55.67356509352695</v>
+        <v>55.67356509352678</v>
       </c>
       <c r="J16" t="n">
-        <v>130.8867338973274</v>
+        <v>130.886733897327</v>
       </c>
       <c r="K16" t="n">
-        <v>215.0871106092122</v>
+        <v>215.0871106092116</v>
       </c>
       <c r="L16" t="n">
-        <v>275.2374496794255</v>
+        <v>275.2374496794247</v>
       </c>
       <c r="M16" t="n">
-        <v>290.1992995488769</v>
+        <v>290.199299548876</v>
       </c>
       <c r="N16" t="n">
-        <v>283.2990088329321</v>
+        <v>283.2990088329313</v>
       </c>
       <c r="O16" t="n">
-        <v>261.672487930519</v>
+        <v>261.6724879305183</v>
       </c>
       <c r="P16" t="n">
-        <v>223.906018743737</v>
+        <v>223.9060187437364</v>
       </c>
       <c r="Q16" t="n">
-        <v>155.0209214257789</v>
+        <v>155.0209214257785</v>
       </c>
       <c r="R16" t="n">
-        <v>83.24106800259496</v>
+        <v>83.24106800259472</v>
       </c>
       <c r="S16" t="n">
-        <v>32.26306659138183</v>
+        <v>32.26306659138174</v>
       </c>
       <c r="T16" t="n">
-        <v>7.910089357302796</v>
+        <v>7.910089357302773</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1009798641357805</v>
+        <v>0.1009798641357802</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.127150225984992</v>
+        <v>4.12715022598498</v>
       </c>
       <c r="H17" t="n">
-        <v>42.26717725186881</v>
+        <v>42.26717725186869</v>
       </c>
       <c r="I17" t="n">
-        <v>159.1119590872866</v>
+        <v>159.1119590872861</v>
       </c>
       <c r="J17" t="n">
-        <v>350.286716492694</v>
+        <v>350.286716492693</v>
       </c>
       <c r="K17" t="n">
-        <v>524.9889855586389</v>
+        <v>524.9889855586373</v>
       </c>
       <c r="L17" t="n">
-        <v>651.2952592871272</v>
+        <v>651.2952592871253</v>
       </c>
       <c r="M17" t="n">
-        <v>724.6914671184877</v>
+        <v>724.6914671184857</v>
       </c>
       <c r="N17" t="n">
-        <v>736.4177326980677</v>
+        <v>736.4177326980656</v>
       </c>
       <c r="O17" t="n">
-        <v>695.3783826384293</v>
+        <v>695.3783826384274</v>
       </c>
       <c r="P17" t="n">
-        <v>593.4893614344248</v>
+        <v>593.489361434423</v>
       </c>
       <c r="Q17" t="n">
-        <v>445.6857939663371</v>
+        <v>445.6857939663358</v>
       </c>
       <c r="R17" t="n">
-        <v>259.25210038303</v>
+        <v>259.2521003830292</v>
       </c>
       <c r="S17" t="n">
-        <v>94.0474357746331</v>
+        <v>94.04743577463283</v>
       </c>
       <c r="T17" t="n">
-        <v>18.06660011424931</v>
+        <v>18.06660011424926</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3301720180787993</v>
+        <v>0.3301720180787984</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.208220047799425</v>
+        <v>2.208220047799418</v>
       </c>
       <c r="H18" t="n">
-        <v>21.32675677743129</v>
+        <v>21.32675677743123</v>
       </c>
       <c r="I18" t="n">
-        <v>76.02862883870827</v>
+        <v>76.02862883870804</v>
       </c>
       <c r="J18" t="n">
-        <v>208.6283686388044</v>
+        <v>208.6283686388038</v>
       </c>
       <c r="K18" t="n">
-        <v>356.5791118413659</v>
+        <v>356.5791118413649</v>
       </c>
       <c r="L18" t="n">
-        <v>479.4646204662742</v>
+        <v>479.4646204662728</v>
       </c>
       <c r="M18" t="n">
-        <v>559.5125971990033</v>
+        <v>559.5125971990017</v>
       </c>
       <c r="N18" t="n">
-        <v>574.321230765167</v>
+        <v>574.3212307651654</v>
       </c>
       <c r="O18" t="n">
-        <v>525.3917233902429</v>
+        <v>525.3917233902414</v>
       </c>
       <c r="P18" t="n">
-        <v>421.6731773732077</v>
+        <v>421.6731773732065</v>
       </c>
       <c r="Q18" t="n">
-        <v>281.8773520664669</v>
+        <v>281.8773520664661</v>
       </c>
       <c r="R18" t="n">
-        <v>137.1033464765292</v>
+        <v>137.1033464765289</v>
       </c>
       <c r="S18" t="n">
-        <v>41.01671887030946</v>
+        <v>41.01671887030934</v>
       </c>
       <c r="T18" t="n">
-        <v>8.900676420735397</v>
+        <v>8.900676420735371</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1452776347236464</v>
+        <v>0.145277634723646</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.851297509155974</v>
+        <v>1.851297509155969</v>
       </c>
       <c r="H19" t="n">
-        <v>16.45971785413222</v>
+        <v>16.45971785413217</v>
       </c>
       <c r="I19" t="n">
-        <v>55.67356509352695</v>
+        <v>55.67356509352678</v>
       </c>
       <c r="J19" t="n">
-        <v>130.8867338973274</v>
+        <v>130.886733897327</v>
       </c>
       <c r="K19" t="n">
-        <v>215.0871106092122</v>
+        <v>215.0871106092116</v>
       </c>
       <c r="L19" t="n">
-        <v>275.2374496794255</v>
+        <v>275.2374496794247</v>
       </c>
       <c r="M19" t="n">
-        <v>290.1992995488769</v>
+        <v>290.199299548876</v>
       </c>
       <c r="N19" t="n">
-        <v>283.2990088329321</v>
+        <v>283.2990088329313</v>
       </c>
       <c r="O19" t="n">
-        <v>261.672487930519</v>
+        <v>261.6724879305183</v>
       </c>
       <c r="P19" t="n">
-        <v>223.906018743737</v>
+        <v>223.9060187437364</v>
       </c>
       <c r="Q19" t="n">
-        <v>155.0209214257789</v>
+        <v>155.0209214257785</v>
       </c>
       <c r="R19" t="n">
-        <v>83.24106800259496</v>
+        <v>83.24106800259472</v>
       </c>
       <c r="S19" t="n">
-        <v>32.26306659138183</v>
+        <v>32.26306659138174</v>
       </c>
       <c r="T19" t="n">
-        <v>7.910089357302796</v>
+        <v>7.910089357302773</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1009798641357805</v>
+        <v>0.1009798641357802</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.127150225984992</v>
+        <v>4.12715022598498</v>
       </c>
       <c r="H20" t="n">
-        <v>42.26717725186881</v>
+        <v>42.26717725186869</v>
       </c>
       <c r="I20" t="n">
-        <v>159.1119590872866</v>
+        <v>159.1119590872861</v>
       </c>
       <c r="J20" t="n">
-        <v>350.286716492694</v>
+        <v>350.286716492693</v>
       </c>
       <c r="K20" t="n">
-        <v>524.9889855586389</v>
+        <v>524.9889855586373</v>
       </c>
       <c r="L20" t="n">
-        <v>651.2952592871272</v>
+        <v>651.2952592871253</v>
       </c>
       <c r="M20" t="n">
-        <v>724.6914671184877</v>
+        <v>724.6914671184857</v>
       </c>
       <c r="N20" t="n">
-        <v>736.4177326980677</v>
+        <v>736.4177326980656</v>
       </c>
       <c r="O20" t="n">
-        <v>695.3783826384293</v>
+        <v>695.3783826384274</v>
       </c>
       <c r="P20" t="n">
-        <v>593.4893614344248</v>
+        <v>593.489361434423</v>
       </c>
       <c r="Q20" t="n">
-        <v>445.6857939663371</v>
+        <v>445.6857939663358</v>
       </c>
       <c r="R20" t="n">
-        <v>259.25210038303</v>
+        <v>259.2521003830292</v>
       </c>
       <c r="S20" t="n">
-        <v>94.0474357746331</v>
+        <v>94.04743577463283</v>
       </c>
       <c r="T20" t="n">
-        <v>18.06660011424931</v>
+        <v>18.06660011424926</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3301720180787993</v>
+        <v>0.3301720180787984</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.208220047799425</v>
+        <v>2.208220047799418</v>
       </c>
       <c r="H21" t="n">
-        <v>21.32675677743129</v>
+        <v>21.32675677743123</v>
       </c>
       <c r="I21" t="n">
-        <v>76.02862883870827</v>
+        <v>76.02862883870804</v>
       </c>
       <c r="J21" t="n">
-        <v>208.6283686388044</v>
+        <v>208.6283686388038</v>
       </c>
       <c r="K21" t="n">
-        <v>356.5791118413659</v>
+        <v>356.5791118413649</v>
       </c>
       <c r="L21" t="n">
-        <v>479.4646204662742</v>
+        <v>479.4646204662728</v>
       </c>
       <c r="M21" t="n">
-        <v>559.5125971990033</v>
+        <v>559.5125971990017</v>
       </c>
       <c r="N21" t="n">
-        <v>574.321230765167</v>
+        <v>574.3212307651654</v>
       </c>
       <c r="O21" t="n">
-        <v>525.3917233902429</v>
+        <v>525.3917233902414</v>
       </c>
       <c r="P21" t="n">
-        <v>421.6731773732077</v>
+        <v>421.6731773732065</v>
       </c>
       <c r="Q21" t="n">
-        <v>281.8773520664669</v>
+        <v>281.8773520664661</v>
       </c>
       <c r="R21" t="n">
-        <v>137.1033464765292</v>
+        <v>137.1033464765289</v>
       </c>
       <c r="S21" t="n">
-        <v>41.01671887030946</v>
+        <v>41.01671887030934</v>
       </c>
       <c r="T21" t="n">
-        <v>8.900676420735397</v>
+        <v>8.900676420735371</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1452776347236464</v>
+        <v>0.145277634723646</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.851297509155974</v>
+        <v>1.851297509155969</v>
       </c>
       <c r="H22" t="n">
-        <v>16.45971785413222</v>
+        <v>16.45971785413217</v>
       </c>
       <c r="I22" t="n">
-        <v>55.67356509352695</v>
+        <v>55.67356509352678</v>
       </c>
       <c r="J22" t="n">
-        <v>130.8867338973274</v>
+        <v>130.886733897327</v>
       </c>
       <c r="K22" t="n">
-        <v>215.0871106092122</v>
+        <v>215.0871106092116</v>
       </c>
       <c r="L22" t="n">
-        <v>275.2374496794255</v>
+        <v>275.2374496794247</v>
       </c>
       <c r="M22" t="n">
-        <v>290.1992995488769</v>
+        <v>290.199299548876</v>
       </c>
       <c r="N22" t="n">
-        <v>283.2990088329321</v>
+        <v>283.2990088329313</v>
       </c>
       <c r="O22" t="n">
-        <v>261.672487930519</v>
+        <v>261.6724879305183</v>
       </c>
       <c r="P22" t="n">
-        <v>223.906018743737</v>
+        <v>223.9060187437364</v>
       </c>
       <c r="Q22" t="n">
-        <v>155.0209214257789</v>
+        <v>155.0209214257785</v>
       </c>
       <c r="R22" t="n">
-        <v>83.24106800259496</v>
+        <v>83.24106800259472</v>
       </c>
       <c r="S22" t="n">
-        <v>32.26306659138183</v>
+        <v>32.26306659138174</v>
       </c>
       <c r="T22" t="n">
-        <v>7.910089357302796</v>
+        <v>7.910089357302773</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1009798641357805</v>
+        <v>0.1009798641357802</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.127150225984992</v>
+        <v>4.12715022598498</v>
       </c>
       <c r="H23" t="n">
-        <v>42.26717725186881</v>
+        <v>42.26717725186869</v>
       </c>
       <c r="I23" t="n">
-        <v>159.1119590872866</v>
+        <v>159.1119590872861</v>
       </c>
       <c r="J23" t="n">
-        <v>350.286716492694</v>
+        <v>350.286716492693</v>
       </c>
       <c r="K23" t="n">
-        <v>524.9889855586389</v>
+        <v>524.9889855586373</v>
       </c>
       <c r="L23" t="n">
-        <v>651.2952592871272</v>
+        <v>651.2952592871253</v>
       </c>
       <c r="M23" t="n">
-        <v>724.6914671184877</v>
+        <v>724.6914671184857</v>
       </c>
       <c r="N23" t="n">
-        <v>736.4177326980677</v>
+        <v>736.4177326980656</v>
       </c>
       <c r="O23" t="n">
-        <v>695.3783826384293</v>
+        <v>695.3783826384274</v>
       </c>
       <c r="P23" t="n">
-        <v>593.4893614344248</v>
+        <v>593.489361434423</v>
       </c>
       <c r="Q23" t="n">
-        <v>445.6857939663371</v>
+        <v>445.6857939663358</v>
       </c>
       <c r="R23" t="n">
-        <v>259.25210038303</v>
+        <v>259.2521003830292</v>
       </c>
       <c r="S23" t="n">
-        <v>94.0474357746331</v>
+        <v>94.04743577463283</v>
       </c>
       <c r="T23" t="n">
-        <v>18.06660011424931</v>
+        <v>18.06660011424926</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3301720180787993</v>
+        <v>0.3301720180787984</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.208220047799425</v>
+        <v>2.208220047799418</v>
       </c>
       <c r="H24" t="n">
-        <v>21.32675677743129</v>
+        <v>21.32675677743123</v>
       </c>
       <c r="I24" t="n">
-        <v>76.02862883870827</v>
+        <v>76.02862883870804</v>
       </c>
       <c r="J24" t="n">
-        <v>208.6283686388044</v>
+        <v>208.6283686388038</v>
       </c>
       <c r="K24" t="n">
-        <v>356.5791118413659</v>
+        <v>356.5791118413649</v>
       </c>
       <c r="L24" t="n">
-        <v>479.4646204662742</v>
+        <v>479.4646204662728</v>
       </c>
       <c r="M24" t="n">
-        <v>559.5125971990033</v>
+        <v>559.5125971990017</v>
       </c>
       <c r="N24" t="n">
-        <v>574.321230765167</v>
+        <v>574.3212307651654</v>
       </c>
       <c r="O24" t="n">
-        <v>525.3917233902429</v>
+        <v>525.3917233902414</v>
       </c>
       <c r="P24" t="n">
-        <v>421.6731773732077</v>
+        <v>421.6731773732065</v>
       </c>
       <c r="Q24" t="n">
-        <v>281.8773520664669</v>
+        <v>281.8773520664661</v>
       </c>
       <c r="R24" t="n">
-        <v>137.1033464765292</v>
+        <v>137.1033464765289</v>
       </c>
       <c r="S24" t="n">
-        <v>41.01671887030946</v>
+        <v>41.01671887030934</v>
       </c>
       <c r="T24" t="n">
-        <v>8.900676420735397</v>
+        <v>8.900676420735371</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1452776347236464</v>
+        <v>0.145277634723646</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.851297509155974</v>
+        <v>1.851297509155969</v>
       </c>
       <c r="H25" t="n">
-        <v>16.45971785413222</v>
+        <v>16.45971785413217</v>
       </c>
       <c r="I25" t="n">
-        <v>55.67356509352695</v>
+        <v>55.67356509352678</v>
       </c>
       <c r="J25" t="n">
-        <v>130.8867338973274</v>
+        <v>130.886733897327</v>
       </c>
       <c r="K25" t="n">
-        <v>215.0871106092122</v>
+        <v>215.0871106092116</v>
       </c>
       <c r="L25" t="n">
-        <v>275.2374496794255</v>
+        <v>275.2374496794247</v>
       </c>
       <c r="M25" t="n">
-        <v>290.1992995488769</v>
+        <v>290.199299548876</v>
       </c>
       <c r="N25" t="n">
-        <v>283.2990088329321</v>
+        <v>283.2990088329313</v>
       </c>
       <c r="O25" t="n">
-        <v>261.672487930519</v>
+        <v>261.6724879305183</v>
       </c>
       <c r="P25" t="n">
-        <v>223.906018743737</v>
+        <v>223.9060187437364</v>
       </c>
       <c r="Q25" t="n">
-        <v>155.0209214257789</v>
+        <v>155.0209214257785</v>
       </c>
       <c r="R25" t="n">
-        <v>83.24106800259496</v>
+        <v>83.24106800259472</v>
       </c>
       <c r="S25" t="n">
-        <v>32.26306659138183</v>
+        <v>32.26306659138174</v>
       </c>
       <c r="T25" t="n">
-        <v>7.910089357302796</v>
+        <v>7.910089357302773</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1009798641357805</v>
+        <v>0.1009798641357802</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33989,7 +33989,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>267.0174665660811</v>
+        <v>267.017466566081</v>
       </c>
       <c r="K11" t="n">
         <v>522.1544139799396</v>
       </c>
       <c r="L11" t="n">
-        <v>700.5833968788605</v>
+        <v>700.5833968788604</v>
       </c>
       <c r="M11" t="n">
-        <v>796.308305353228</v>
+        <v>796.3083053532279</v>
       </c>
       <c r="N11" t="n">
-        <v>794.413610747724</v>
+        <v>794.4136107477239</v>
       </c>
       <c r="O11" t="n">
         <v>704.4981670944231</v>
       </c>
       <c r="P11" t="n">
-        <v>563.217954244112</v>
+        <v>563.2179542441119</v>
       </c>
       <c r="Q11" t="n">
         <v>344.9514503126151</v>
       </c>
       <c r="R11" t="n">
-        <v>56.59808165358092</v>
+        <v>56.59808165358089</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>165.4040973865062</v>
+        <v>39.31306204609734</v>
       </c>
       <c r="K12" t="n">
         <v>410.6017891406676</v>
       </c>
       <c r="L12" t="n">
-        <v>576.0164307809936</v>
+        <v>614.129419621602</v>
       </c>
       <c r="M12" t="n">
         <v>303.4592666181783</v>
@@ -35504,10 +35504,10 @@
         <v>275.823346595958</v>
       </c>
       <c r="P12" t="n">
-        <v>201.8442029183526</v>
+        <v>499.8995371540024</v>
       </c>
       <c r="Q12" t="n">
-        <v>294.5813613029674</v>
+        <v>84.50407356711827</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.87842247923967</v>
+        <v>10.87842247923966</v>
       </c>
       <c r="K13" t="n">
         <v>149.0249097654455</v>
@@ -35577,16 +35577,16 @@
         <v>270.6972859320499</v>
       </c>
       <c r="N13" t="n">
-        <v>269.7502210479949</v>
+        <v>269.7502210479948</v>
       </c>
       <c r="O13" t="n">
-        <v>232.9799131990143</v>
+        <v>232.9799131990142</v>
       </c>
       <c r="P13" t="n">
         <v>175.5962993878225</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.29591708146103</v>
+        <v>37.29591708146101</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.2408119660078</v>
+        <v>169.2408119660067</v>
       </c>
       <c r="K14" t="n">
-        <v>304.8991345136583</v>
+        <v>304.8991345136567</v>
       </c>
       <c r="L14" t="n">
-        <v>833.1900588675904</v>
+        <v>833.1900588675885</v>
       </c>
       <c r="M14" t="n">
-        <v>943.8587673840475</v>
+        <v>943.8587673840454</v>
       </c>
       <c r="N14" t="n">
-        <v>944.3515935134609</v>
+        <v>944.3515935134589</v>
       </c>
       <c r="O14" t="n">
-        <v>846.0803524794879</v>
+        <v>846.080352479486</v>
       </c>
       <c r="P14" t="n">
-        <v>375.3590415725436</v>
+        <v>362.2563656791535</v>
       </c>
       <c r="Q14" t="n">
-        <v>223.3801040918876</v>
+        <v>236.4827799852894</v>
       </c>
       <c r="R14" t="n">
-        <v>109.3829824418803</v>
+        <v>109.3829824418796</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.79074197213774</v>
+        <v>81.79074197213714</v>
       </c>
       <c r="K15" t="n">
-        <v>218.7376728670069</v>
+        <v>218.7376728670059</v>
       </c>
       <c r="L15" t="n">
-        <v>340.9102406864</v>
+        <v>340.9102406863987</v>
       </c>
       <c r="M15" t="n">
-        <v>417.3785632769849</v>
+        <v>417.3785632769834</v>
       </c>
       <c r="N15" t="n">
-        <v>442.9795186818337</v>
+        <v>442.9795186818321</v>
       </c>
       <c r="O15" t="n">
-        <v>382.7954789457984</v>
+        <v>382.795478945797</v>
       </c>
       <c r="P15" t="n">
-        <v>496.2046756269226</v>
+        <v>287.6987699588763</v>
       </c>
       <c r="Q15" t="n">
-        <v>141.8955779804454</v>
+        <v>350.4014836484997</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>37.52755378065459</v>
+        <v>37.52755378065422</v>
       </c>
       <c r="K16" t="n">
-        <v>192.8176187833327</v>
+        <v>192.8176187833287</v>
       </c>
       <c r="L16" t="n">
-        <v>302.8274749397416</v>
+        <v>302.8274749397408</v>
       </c>
       <c r="M16" t="n">
-        <v>329.7831765107175</v>
+        <v>329.7831765107166</v>
       </c>
       <c r="N16" t="n">
-        <v>327.4311812121607</v>
+        <v>327.4311812121599</v>
       </c>
       <c r="O16" t="n">
-        <v>286.2576158445587</v>
+        <v>286.257615844558</v>
       </c>
       <c r="P16" t="n">
-        <v>221.1845780086305</v>
+        <v>221.1845780086298</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.8588781740845</v>
+        <v>68.85887817408407</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.2408119660078</v>
+        <v>338.3374271380805</v>
       </c>
       <c r="K17" t="n">
-        <v>383.718230280029</v>
+        <v>629.0445470848215</v>
       </c>
       <c r="L17" t="n">
-        <v>833.1900588675904</v>
+        <v>771.5138859641647</v>
       </c>
       <c r="M17" t="n">
-        <v>943.8587673840475</v>
+        <v>494.345233891213</v>
       </c>
       <c r="N17" t="n">
-        <v>944.3515935134609</v>
+        <v>507.0046691014747</v>
       </c>
       <c r="O17" t="n">
-        <v>846.0803524794879</v>
+        <v>846.080352479486</v>
       </c>
       <c r="P17" t="n">
-        <v>362.2563656791553</v>
+        <v>684.0550738506361</v>
       </c>
       <c r="Q17" t="n">
-        <v>223.3801040918876</v>
+        <v>435.695094751791</v>
       </c>
       <c r="R17" t="n">
-        <v>43.66656256889786</v>
+        <v>43.66656256889712</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>207.8817773125466</v>
+        <v>81.79074197213714</v>
       </c>
       <c r="K18" t="n">
-        <v>218.7376728670069</v>
+        <v>427.2435785350607</v>
       </c>
       <c r="L18" t="n">
-        <v>340.9102406864</v>
+        <v>340.9102406863987</v>
       </c>
       <c r="M18" t="n">
-        <v>417.3785632769849</v>
+        <v>417.3785632769834</v>
       </c>
       <c r="N18" t="n">
-        <v>442.9795186818337</v>
+        <v>442.9795186818321</v>
       </c>
       <c r="O18" t="n">
-        <v>382.7954789457984</v>
+        <v>382.795478945797</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6987699588774</v>
+        <v>287.6987699588763</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.3104483080818</v>
+        <v>141.8955779804446</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.52755378065459</v>
+        <v>37.52755378065422</v>
       </c>
       <c r="K19" t="n">
-        <v>192.8176187833294</v>
+        <v>192.8176187833287</v>
       </c>
       <c r="L19" t="n">
-        <v>302.8274749397416</v>
+        <v>302.8274749397408</v>
       </c>
       <c r="M19" t="n">
-        <v>329.7831765107175</v>
+        <v>329.7831765107166</v>
       </c>
       <c r="N19" t="n">
-        <v>327.4311812121607</v>
+        <v>327.4311812121599</v>
       </c>
       <c r="O19" t="n">
-        <v>286.2576158445587</v>
+        <v>286.257615844558</v>
       </c>
       <c r="P19" t="n">
-        <v>221.1845780086305</v>
+        <v>221.1845780086298</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.8588781740845</v>
+        <v>68.85887817408407</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.2408119660078</v>
+        <v>169.2408119660067</v>
       </c>
       <c r="K20" t="n">
-        <v>304.8991345136583</v>
+        <v>442.7197033713042</v>
       </c>
       <c r="L20" t="n">
-        <v>833.1900588675904</v>
+        <v>833.1900588675885</v>
       </c>
       <c r="M20" t="n">
-        <v>943.8587673840475</v>
+        <v>943.8587673840454</v>
       </c>
       <c r="N20" t="n">
-        <v>944.3515935134609</v>
+        <v>944.3515935134589</v>
       </c>
       <c r="O20" t="n">
-        <v>465.2801712167426</v>
+        <v>465.2801712167407</v>
       </c>
       <c r="P20" t="n">
-        <v>684.0550738506379</v>
+        <v>684.0550738506361</v>
       </c>
       <c r="Q20" t="n">
-        <v>295.4842530765378</v>
+        <v>223.3801040918864</v>
       </c>
       <c r="R20" t="n">
-        <v>109.3829824418803</v>
+        <v>43.66656256889712</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>207.8817773125466</v>
+        <v>207.881777312546</v>
       </c>
       <c r="K21" t="n">
-        <v>218.7376728670069</v>
+        <v>218.7376728670059</v>
       </c>
       <c r="L21" t="n">
-        <v>340.9102406864</v>
+        <v>340.9102406863987</v>
       </c>
       <c r="M21" t="n">
-        <v>417.3785632769849</v>
+        <v>417.3785632769834</v>
       </c>
       <c r="N21" t="n">
-        <v>442.9795186818337</v>
+        <v>442.9795186818321</v>
       </c>
       <c r="O21" t="n">
-        <v>382.7954789457984</v>
+        <v>382.795478945797</v>
       </c>
       <c r="P21" t="n">
-        <v>370.1136402865138</v>
+        <v>287.6987699588763</v>
       </c>
       <c r="Q21" t="n">
-        <v>141.8955779804454</v>
+        <v>224.3104483080905</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>37.52755378065459</v>
+        <v>37.52755378065422</v>
       </c>
       <c r="K22" t="n">
-        <v>192.8176187833294</v>
+        <v>192.8176187833287</v>
       </c>
       <c r="L22" t="n">
-        <v>302.8274749397416</v>
+        <v>302.8274749397408</v>
       </c>
       <c r="M22" t="n">
-        <v>329.7831765107175</v>
+        <v>329.7831765107166</v>
       </c>
       <c r="N22" t="n">
-        <v>327.4311812121607</v>
+        <v>327.4311812121599</v>
       </c>
       <c r="O22" t="n">
-        <v>286.2576158445587</v>
+        <v>286.257615844558</v>
       </c>
       <c r="P22" t="n">
-        <v>221.1845780086305</v>
+        <v>221.1845780086298</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.8588781740845</v>
+        <v>68.85887817408407</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>338.3374271380815</v>
+        <v>169.2408119660067</v>
       </c>
       <c r="K23" t="n">
-        <v>629.0445470848231</v>
+        <v>629.0445470848215</v>
       </c>
       <c r="L23" t="n">
-        <v>705.797466091168</v>
+        <v>833.1900588675885</v>
       </c>
       <c r="M23" t="n">
-        <v>494.345233891215</v>
+        <v>943.8587673840454</v>
       </c>
       <c r="N23" t="n">
-        <v>507.0046691014767</v>
+        <v>944.3515935134589</v>
       </c>
       <c r="O23" t="n">
-        <v>846.0803524794879</v>
+        <v>465.2801712167407</v>
       </c>
       <c r="P23" t="n">
-        <v>684.0550738506379</v>
+        <v>497.7302301371177</v>
       </c>
       <c r="Q23" t="n">
-        <v>435.6950947517923</v>
+        <v>223.3801040918864</v>
       </c>
       <c r="R23" t="n">
-        <v>109.3829824418803</v>
+        <v>43.66656256889712</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>81.79074197213774</v>
+        <v>207.881777312546</v>
       </c>
       <c r="K24" t="n">
-        <v>218.7376728670069</v>
+        <v>218.7376728670059</v>
       </c>
       <c r="L24" t="n">
-        <v>340.9102406864</v>
+        <v>340.9102406863987</v>
       </c>
       <c r="M24" t="n">
-        <v>625.8844689450299</v>
+        <v>417.3785632769834</v>
       </c>
       <c r="N24" t="n">
-        <v>442.9795186818337</v>
+        <v>442.9795186818321</v>
       </c>
       <c r="O24" t="n">
-        <v>382.7954789457984</v>
+        <v>382.795478945797</v>
       </c>
       <c r="P24" t="n">
-        <v>287.6987699588774</v>
+        <v>287.6987699588763</v>
       </c>
       <c r="Q24" t="n">
-        <v>141.8955779804454</v>
+        <v>224.3104483080905</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>37.52755378065459</v>
+        <v>37.52755378065422</v>
       </c>
       <c r="K25" t="n">
-        <v>192.8176187833294</v>
+        <v>192.8176187833287</v>
       </c>
       <c r="L25" t="n">
-        <v>302.8274749397416</v>
+        <v>302.8274749397408</v>
       </c>
       <c r="M25" t="n">
-        <v>329.7831765107175</v>
+        <v>329.7831765107166</v>
       </c>
       <c r="N25" t="n">
-        <v>327.4311812121607</v>
+        <v>327.4311812121599</v>
       </c>
       <c r="O25" t="n">
-        <v>286.2576158445587</v>
+        <v>286.257615844558</v>
       </c>
       <c r="P25" t="n">
-        <v>221.1845780086305</v>
+        <v>221.1845780086298</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.8588781740845</v>
+        <v>68.85887817408407</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,7 +37081,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>883.6236994779107</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>440.9775330409149</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37555,16 +37555,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37792,16 +37792,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>611.8392473737334</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
